--- a/media/delegates_round1.xlsx
+++ b/media/delegates_round1.xlsx
@@ -67,6 +67,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -77,6 +78,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>st</t>
     </r>
@@ -86,6 +88,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of council</t>
     </r>
@@ -97,6 +100,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -107,6 +111,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>st</t>
     </r>
@@ -116,6 +121,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of country in 1</t>
     </r>
@@ -126,6 +132,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>st</t>
     </r>
@@ -135,6 +142,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of council</t>
     </r>
@@ -146,6 +154,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -156,6 +165,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>nd</t>
     </r>
@@ -165,6 +175,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of country in 1</t>
     </r>
@@ -175,6 +186,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>st</t>
     </r>
@@ -184,6 +196,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of council</t>
     </r>
@@ -195,6 +208,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -205,6 +219,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>rd</t>
     </r>
@@ -214,6 +229,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of country in 1</t>
     </r>
@@ -224,6 +240,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>st</t>
     </r>
@@ -233,6 +250,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of council</t>
     </r>
@@ -244,6 +262,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -254,6 +273,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>nd</t>
     </r>
@@ -263,6 +283,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of council</t>
     </r>
@@ -274,6 +295,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -284,6 +306,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>st</t>
     </r>
@@ -293,6 +316,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of country in 2</t>
     </r>
@@ -303,6 +327,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>nd</t>
     </r>
@@ -312,6 +337,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of council</t>
     </r>
@@ -323,6 +349,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -333,6 +360,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>nd</t>
     </r>
@@ -342,6 +370,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of country in 2</t>
     </r>
@@ -352,6 +381,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>nd</t>
     </r>
@@ -361,6 +391,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of council</t>
     </r>
@@ -372,6 +403,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -382,6 +414,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>rd</t>
     </r>
@@ -391,6 +424,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of country in 2</t>
     </r>
@@ -401,6 +435,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>nd</t>
     </r>
@@ -410,6 +445,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of council</t>
     </r>
@@ -421,6 +457,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -431,6 +468,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>rd</t>
     </r>
@@ -440,6 +478,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of council</t>
     </r>
@@ -451,6 +490,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -461,6 +501,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>st</t>
     </r>
@@ -470,6 +511,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of country in 3</t>
     </r>
@@ -480,6 +522,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>rd</t>
     </r>
@@ -489,6 +532,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of council</t>
     </r>
@@ -500,6 +544,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -510,6 +555,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>nd</t>
     </r>
@@ -519,6 +565,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of country in 3</t>
     </r>
@@ -529,6 +576,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>rd</t>
     </r>
@@ -538,6 +586,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of council</t>
     </r>
@@ -549,6 +598,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -559,6 +609,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>rd</t>
     </r>
@@ -568,6 +619,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of country in 3</t>
     </r>
@@ -578,6 +630,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>rd</t>
     </r>
@@ -587,6 +640,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> choice of council</t>
     </r>
@@ -6238,6 +6292,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -6259,6 +6314,7 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -6266,6 +6322,7 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -6352,33 +6409,33 @@
   </sheetPr>
   <dimension ref="A1:Z265"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H251" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E260" activeCellId="0" sqref="E260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.36224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.780612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.5663265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.7244897959184"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="50.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2397959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.1683673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="38.9387755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="99.6479591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="46.9591836734694"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.9030612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="67.5663265306122"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="43.9438775510204"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="67.5663265306122"/>
-    <col collapsed="false" hidden="false" max="21" min="19" style="0" width="43.9438775510204"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="67.5663265306122"/>
-    <col collapsed="false" hidden="false" max="25" min="23" style="0" width="43.9438775510204"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="92.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.6785714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="38.4744897959184"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="98.545918367347"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="46.4387755102041"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="66.8214285714286"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="43.469387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="66.8214285714286"/>
+    <col collapsed="false" hidden="false" max="21" min="19" style="0" width="43.469387755102"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="66.8214285714286"/>
+    <col collapsed="false" hidden="false" max="25" min="23" style="0" width="43.469387755102"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="91.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26631,7 +26688,7 @@
         <v>49</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>50</v>
+        <v>627</v>
       </c>
       <c r="F258" s="0" t="n">
         <v>2018</v>

--- a/media/delegates_round1.xlsx
+++ b/media/delegates_round1.xlsx
@@ -6409,33 +6409,32 @@
   </sheetPr>
   <dimension ref="A1:Z265"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H251" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E260" activeCellId="0" sqref="E260"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N259" activeCellId="0" sqref="N259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.969387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.6785714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="38.4744897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="98.545918367347"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="46.4387755102041"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="66.8214285714286"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="43.469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="66.8214285714286"/>
-    <col collapsed="false" hidden="false" max="21" min="19" style="0" width="43.469387755102"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="66.8214285714286"/>
-    <col collapsed="false" hidden="false" max="25" min="23" style="0" width="43.469387755102"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="91.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.4336734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.1377551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.9336734693878"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="97.4642857142857"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="45.8979591836735"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="66.0102040816327"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="42.9285714285714"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="66.0102040816327"/>
+    <col collapsed="false" hidden="false" max="21" min="19" style="0" width="42.9285714285714"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="66.0102040816327"/>
+    <col collapsed="false" hidden="false" max="25" min="23" style="0" width="42.9285714285714"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="90.7142857142857"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26712,31 +26711,31 @@
         <v>0</v>
       </c>
       <c r="M258" s="0" t="s">
-        <v>1628</v>
+        <v>271</v>
       </c>
       <c r="N258" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="O258" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="P258" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q258" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="R258" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O258" s="0" t="s">
+      <c r="S258" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="P258" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q258" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="R258" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="S258" s="0" t="s">
-        <v>202</v>
       </c>
       <c r="T258" s="0" t="s">
         <v>72</v>
       </c>
       <c r="U258" s="0" t="s">
-        <v>251</v>
+        <v>69</v>
       </c>
       <c r="V258" s="0" t="s">
         <v>42</v>
